--- a/Exp1/conditionList/AM_list5.xlsx
+++ b/Exp1/conditionList/AM_list5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Documents/research/FatFaceIllusion/program/Exp1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Documents/GitHub/FatFace/Exp1/conditionList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE22EA57-D6DD-A74F-9387-F127078985BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C02DD-02AA-2646-AB8C-60AE4B75D338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="2600" windowWidth="24540" windowHeight="14000" xr2:uid="{0BDF88F8-6D71-5D43-BE75-BB4E54A4D4F1}"/>
+    <workbookView xWindow="1060" yWindow="1020" windowWidth="24540" windowHeight="14000" xr2:uid="{0BDF88F8-6D71-5D43-BE75-BB4E54A4D4F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
